--- a/python/Statistics/Results/Seasonal_trends_RSTs_NCEP_1979-2016.xlsx
+++ b/python/Statistics/Results/Seasonal_trends_RSTs_NCEP_1979-2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NO_RSTs" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="West" sheetId="3" r:id="rId3"/>
     <sheet name="Central" sheetId="4" r:id="rId4"/>
     <sheet name="All RSTs" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>DJF</t>
   </si>
@@ -35,6 +36,12 @@
   </si>
   <si>
     <t>SON</t>
+  </si>
+  <si>
+    <t>NCEP</t>
+  </si>
+  <si>
+    <t>ERA 2.5</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1485,857 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NCEP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$AM$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEF8-4EDD-B7FE-22D0F5172E05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ERA 2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$AM$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$AM$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEF8-4EDD-B7FE-22D0F5172E05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="346693280"/>
+        <c:axId val="594274544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="346693280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594274544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594274544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346693280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2034,20 +2891,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2055,6 +3428,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F09E264-4339-4427-B502-A706047C8BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EAB7B1-65A9-4684-B382-C9FD860DB012}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,10 +5954,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AM5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,8 +6552,539 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>81</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <f>SUM(E2:E5)</f>
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F2:F5)</f>
+        <v>85</v>
+      </c>
+      <c r="G6">
+        <f>SUM(G2:G5)</f>
+        <v>117</v>
+      </c>
+      <c r="H6">
+        <f>SUM(H2:H5)</f>
+        <v>109</v>
+      </c>
+      <c r="I6">
+        <f>SUM(I2:I5)</f>
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <f>SUM(J2:J5)</f>
+        <v>86</v>
+      </c>
+      <c r="K6">
+        <f>SUM(K2:K5)</f>
+        <v>97</v>
+      </c>
+      <c r="L6">
+        <f>SUM(L2:L5)</f>
+        <v>108</v>
+      </c>
+      <c r="M6">
+        <f>SUM(M2:M5)</f>
+        <v>103</v>
+      </c>
+      <c r="N6">
+        <f>SUM(N2:N5)</f>
+        <v>90</v>
+      </c>
+      <c r="O6">
+        <f>SUM(O2:O5)</f>
+        <v>96</v>
+      </c>
+      <c r="P6">
+        <f>SUM(P2:P5)</f>
+        <v>117</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(Q2:Q5)</f>
+        <v>90</v>
+      </c>
+      <c r="R6">
+        <f>SUM(R2:R5)</f>
+        <v>114</v>
+      </c>
+      <c r="S6">
+        <f>SUM(S2:S5)</f>
+        <v>74</v>
+      </c>
+      <c r="T6">
+        <f>SUM(T2:T5)</f>
+        <v>92</v>
+      </c>
+      <c r="U6">
+        <f>SUM(U2:U5)</f>
+        <v>92</v>
+      </c>
+      <c r="V6">
+        <f>SUM(V2:V5)</f>
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <f>SUM(W2:W5)</f>
+        <v>102</v>
+      </c>
+      <c r="X6">
+        <f>SUM(X2:X5)</f>
+        <v>82</v>
+      </c>
+      <c r="Y6">
+        <f>SUM(Y2:Y5)</f>
+        <v>91</v>
+      </c>
+      <c r="Z6">
+        <f>SUM(Z2:Z5)</f>
+        <v>84</v>
+      </c>
+      <c r="AA6">
+        <f>SUM(AA2:AA5)</f>
+        <v>99</v>
+      </c>
+      <c r="AB6">
+        <f>SUM(AB2:AB5)</f>
+        <v>89</v>
+      </c>
+      <c r="AC6">
+        <f>SUM(AC2:AC5)</f>
+        <v>89</v>
+      </c>
+      <c r="AD6">
+        <f>SUM(AD2:AD5)</f>
+        <v>85</v>
+      </c>
+      <c r="AE6">
+        <f>SUM(AE2:AE5)</f>
+        <v>83</v>
+      </c>
+      <c r="AF6">
+        <f>SUM(AF2:AF5)</f>
+        <v>59</v>
+      </c>
+      <c r="AG6">
+        <f>SUM(AG2:AG5)</f>
+        <v>80</v>
+      </c>
+      <c r="AH6">
+        <f>SUM(AH2:AH5)</f>
+        <v>70</v>
+      </c>
+      <c r="AI6">
+        <f>SUM(AI2:AI5)</f>
+        <v>82</v>
+      </c>
+      <c r="AJ6">
+        <f>SUM(AJ2:AJ5)</f>
+        <v>83</v>
+      </c>
+      <c r="AK6">
+        <f>SUM(AK2:AK5)</f>
+        <v>80</v>
+      </c>
+      <c r="AL6">
+        <f>SUM(AL2:AL5)</f>
+        <v>101</v>
+      </c>
+      <c r="AM6">
+        <f>SUM(AM2:AM5)</f>
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CA89A4-A723-4D77-9278-907DF6D43669}">
+  <dimension ref="A1:AM4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>1979</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1980</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1981</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1982</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1983</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1984</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1985</v>
+      </c>
+      <c r="I1" s="2">
+        <v>1986</v>
+      </c>
+      <c r="J1" s="2">
+        <v>1987</v>
+      </c>
+      <c r="K1" s="2">
+        <v>1988</v>
+      </c>
+      <c r="L1" s="2">
+        <v>1989</v>
+      </c>
+      <c r="M1" s="2">
+        <v>1990</v>
+      </c>
+      <c r="N1" s="2">
+        <v>1991</v>
+      </c>
+      <c r="O1" s="2">
+        <v>1992</v>
+      </c>
+      <c r="P1" s="2">
+        <v>1993</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>1994</v>
+      </c>
+      <c r="R1" s="2">
+        <v>1995</v>
+      </c>
+      <c r="S1" s="2">
+        <v>1996</v>
+      </c>
+      <c r="T1" s="2">
+        <v>1997</v>
+      </c>
+      <c r="U1" s="2">
+        <v>1998</v>
+      </c>
+      <c r="V1" s="2">
+        <v>1999</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="AM1" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>81</v>
+      </c>
+      <c r="C2">
+        <v>103</v>
+      </c>
+      <c r="D2">
+        <v>92</v>
+      </c>
+      <c r="E2">
+        <v>101</v>
+      </c>
+      <c r="F2">
+        <v>85</v>
+      </c>
+      <c r="G2">
+        <v>117</v>
+      </c>
+      <c r="H2">
+        <v>109</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+      <c r="J2">
+        <v>86</v>
+      </c>
+      <c r="K2">
+        <v>97</v>
+      </c>
+      <c r="L2">
+        <v>108</v>
+      </c>
+      <c r="M2">
+        <v>103</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
+      <c r="O2">
+        <v>96</v>
+      </c>
+      <c r="P2">
+        <v>117</v>
+      </c>
+      <c r="Q2">
+        <v>90</v>
+      </c>
+      <c r="R2">
+        <v>114</v>
+      </c>
+      <c r="S2">
+        <v>74</v>
+      </c>
+      <c r="T2">
+        <v>92</v>
+      </c>
+      <c r="U2">
+        <v>92</v>
+      </c>
+      <c r="V2">
+        <v>100</v>
+      </c>
+      <c r="W2">
+        <v>102</v>
+      </c>
+      <c r="X2">
+        <v>82</v>
+      </c>
+      <c r="Y2">
+        <v>91</v>
+      </c>
+      <c r="Z2">
+        <v>84</v>
+      </c>
+      <c r="AA2">
+        <v>99</v>
+      </c>
+      <c r="AB2">
+        <v>89</v>
+      </c>
+      <c r="AC2">
+        <v>89</v>
+      </c>
+      <c r="AD2">
+        <v>85</v>
+      </c>
+      <c r="AE2">
+        <v>83</v>
+      </c>
+      <c r="AF2">
+        <v>59</v>
+      </c>
+      <c r="AG2">
+        <v>80</v>
+      </c>
+      <c r="AH2">
+        <v>70</v>
+      </c>
+      <c r="AI2">
+        <v>82</v>
+      </c>
+      <c r="AJ2">
+        <v>83</v>
+      </c>
+      <c r="AK2">
+        <v>80</v>
+      </c>
+      <c r="AL2">
+        <v>101</v>
+      </c>
+      <c r="AM2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>82</v>
+      </c>
+      <c r="G3">
+        <v>92</v>
+      </c>
+      <c r="H3">
+        <v>79</v>
+      </c>
+      <c r="I3">
+        <v>82</v>
+      </c>
+      <c r="J3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>72</v>
+      </c>
+      <c r="L3">
+        <v>79</v>
+      </c>
+      <c r="M3">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <v>74</v>
+      </c>
+      <c r="O3">
+        <v>71</v>
+      </c>
+      <c r="P3">
+        <v>93</v>
+      </c>
+      <c r="Q3">
+        <v>72</v>
+      </c>
+      <c r="R3">
+        <v>88</v>
+      </c>
+      <c r="S3">
+        <v>75</v>
+      </c>
+      <c r="T3">
+        <v>83</v>
+      </c>
+      <c r="U3">
+        <v>94</v>
+      </c>
+      <c r="V3">
+        <v>82</v>
+      </c>
+      <c r="W3">
+        <v>80</v>
+      </c>
+      <c r="X3">
+        <v>62</v>
+      </c>
+      <c r="Y3">
+        <v>80</v>
+      </c>
+      <c r="Z3">
+        <v>80</v>
+      </c>
+      <c r="AA3">
+        <v>90</v>
+      </c>
+      <c r="AB3">
+        <v>87</v>
+      </c>
+      <c r="AC3">
+        <v>74</v>
+      </c>
+      <c r="AD3">
+        <v>77</v>
+      </c>
+      <c r="AE3">
+        <v>76</v>
+      </c>
+      <c r="AF3">
+        <v>60</v>
+      </c>
+      <c r="AG3">
+        <v>80</v>
+      </c>
+      <c r="AH3">
+        <v>73</v>
+      </c>
+      <c r="AI3">
+        <v>75</v>
+      </c>
+      <c r="AJ3">
+        <v>80</v>
+      </c>
+      <c r="AK3">
+        <v>86</v>
+      </c>
+      <c r="AL3">
+        <v>84</v>
+      </c>
+      <c r="AM3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>CORREL(B2:AM2,B3:AM3)</f>
+        <v>0.59140150140234438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>